--- a/package/calibration_data/efficiency_and_power.xlsx
+++ b/package/calibration_data/efficiency_and_power.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1621511\Documents_temp\Code\endogenous_innovation_and_preference_change\package\calibration_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFC5D7B9-27F7-4F4F-A616-7FF371982889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC6FB75-1C77-481A-87E2-BCBEB8FA4CAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{B489B441-6703-45A3-AD6C-68DECF9288A2}"/>
   </bookViews>
@@ -38,13 +38,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Model Year</t>
-  </si>
-  <si>
     <t>Avg. Peak Horsepower</t>
   </si>
   <si>
     <t>Avg Fuel Economy mpg</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -94,11 +94,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -106,11 +103,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,272 +444,275 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="51" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="8">
+        <v>36526</v>
+      </c>
+      <c r="B2" s="6">
         <v>19.8</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2">
         <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
-        <v>2001</v>
-      </c>
-      <c r="B3" s="8">
+        <v>36892</v>
+      </c>
+      <c r="B3" s="6">
         <v>19.600000000000001</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3">
         <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
-        <v>2002</v>
-      </c>
-      <c r="B4" s="8">
+        <v>37257</v>
+      </c>
+      <c r="B4" s="6">
         <v>19.399999999999999</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="8">
+        <v>37622</v>
+      </c>
+      <c r="B5" s="6">
         <v>19.600000000000001</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5">
         <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
-        <v>2004</v>
-      </c>
-      <c r="B6" s="8">
+        <v>37987</v>
+      </c>
+      <c r="B6" s="6">
         <v>19.3</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6">
         <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="8">
+        <v>38353</v>
+      </c>
+      <c r="B7" s="6">
         <v>19.899999999999999</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7">
         <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
-        <v>2006</v>
-      </c>
-      <c r="B8" s="8">
+        <v>38718</v>
+      </c>
+      <c r="B8" s="6">
         <v>20.100000000000001</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8">
         <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="8">
+        <v>39083</v>
+      </c>
+      <c r="B9" s="6">
         <v>20.6</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9">
         <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="8">
+        <v>39448</v>
+      </c>
+      <c r="B10" s="6">
         <v>21</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10">
         <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
-        <v>2009</v>
-      </c>
-      <c r="B11" s="8">
+        <v>39814</v>
+      </c>
+      <c r="B11" s="6">
         <v>22.4</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11">
         <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="8">
+        <v>40179</v>
+      </c>
+      <c r="B12" s="6">
         <v>22.6</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12">
         <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
-        <v>2011</v>
-      </c>
-      <c r="B13" s="8">
+        <v>40544</v>
+      </c>
+      <c r="B13" s="6">
         <v>22.4</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13">
         <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="8">
+        <v>40909</v>
+      </c>
+      <c r="B14" s="6">
         <v>23.6</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14">
         <v>222</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="8">
+        <v>41275</v>
+      </c>
+      <c r="B15" s="6">
         <v>24.2</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15">
         <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="8">
+        <v>41640</v>
+      </c>
+      <c r="B16" s="6">
         <v>24.1</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16">
         <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="8">
+        <v>42005</v>
+      </c>
+      <c r="B17" s="6">
         <v>24.6</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17">
         <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B18" s="8">
+        <v>42370</v>
+      </c>
+      <c r="B18" s="6">
         <v>24.7</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18">
         <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="8">
+        <v>42736</v>
+      </c>
+      <c r="B19" s="6">
         <v>24.9</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19">
         <v>234</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="8">
+        <v>43101</v>
+      </c>
+      <c r="B20" s="6">
         <v>25.1</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20">
         <v>241</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
-        <v>2019</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="A21" s="7">
+        <v>43466</v>
+      </c>
+      <c r="B21" s="1">
         <v>24.9</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>245</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>2020</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="A22" s="7">
+        <v>43831</v>
+      </c>
+      <c r="B22" s="3">
         <v>25.4</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>2021</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="A23" s="7">
+        <v>44197</v>
+      </c>
+      <c r="B23" s="3">
         <v>25.4</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="4">
         <v>253</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>2022</v>
-      </c>
-      <c r="B24" s="4">
+      <c r="A24" s="7">
+        <v>44562</v>
+      </c>
+      <c r="B24" s="3">
         <v>26</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="4">
         <v>259</v>
       </c>
     </row>
